--- a/Sly1/outputs/all_DEGs_annotated.xlsx
+++ b/Sly1/outputs/all_DEGs_annotated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levla\github\Ath_RNAseq\Sly1\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C3D05F-EF1C-49D4-A505-C155280B308E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABF0E83-9FFA-4D4C-B487-723CB4A47FB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="root_uncleaned" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="ExternalData_2" localSheetId="1" hidden="1">root_cleaned!$A$1:$L$29</definedName>
     <definedName name="ExternalData_2" localSheetId="0" hidden="1">root_uncleaned!$A$1:$P$61</definedName>
-    <definedName name="ExternalData_3" localSheetId="3" hidden="1">shoot_cleaned!$A$1:$P$56</definedName>
+    <definedName name="ExternalData_3" localSheetId="3" hidden="1">shoot_cleaned!$A$1:$L$56</definedName>
     <definedName name="ExternalData_3" localSheetId="2" hidden="1">shoot_uncleaned!$A$1:$P$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="564">
   <si>
     <t>GO:0016021</t>
   </si>
@@ -2495,13 +2495,9 @@
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_3" connectionId="8" xr16:uid="{BBAE3DC1-25D9-4EF7-B97C-DAA4E7137C82}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="17">
-    <queryTableFields count="16">
+    <queryTableFields count="12">
       <queryTableField id="1" name="gene" tableColumnId="1"/>
-      <queryTableField id="2" name="baseMean" tableColumnId="2"/>
       <queryTableField id="3" name="log2FoldChange" tableColumnId="3"/>
-      <queryTableField id="4" name="lfcSE" tableColumnId="4"/>
-      <queryTableField id="5" name="stat" tableColumnId="5"/>
-      <queryTableField id="6" name="pvalue" tableColumnId="6"/>
       <queryTableField id="7" name="padj" tableColumnId="7"/>
       <queryTableField id="8" name="description_ITAG4.0" tableColumnId="8"/>
       <queryTableField id="9" name="goterm" tableColumnId="9"/>
@@ -2513,6 +2509,12 @@
       <queryTableField id="15" name="external_gene_name" tableColumnId="15"/>
       <queryTableField id="16" name="athaliana_eg_homolog_perc_id" tableColumnId="16"/>
     </queryTableFields>
+    <queryTableDeletedFields count="4">
+      <deletedField name="baseMean"/>
+      <deletedField name="lfcSE"/>
+      <deletedField name="stat"/>
+      <deletedField name="pvalue"/>
+    </queryTableDeletedFields>
   </queryTableRefresh>
 </queryTable>
 </file>
@@ -2521,22 +2523,22 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{68AB4F35-1257-44AD-BCC3-FB59DE8D0F3F}" name="annotated_DEGslist_root__24" displayName="annotated_DEGslist_root__24" ref="A1:P61" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:P61" xr:uid="{A819B883-9815-447C-ADE4-FCDE6EA1F3B3}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{730D6710-8D4E-4597-ACCE-C4A0E3E42CEE}" uniqueName="1" name="gene" queryTableFieldId="1" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{730D6710-8D4E-4597-ACCE-C4A0E3E42CEE}" uniqueName="1" name="gene" queryTableFieldId="1" dataDxfId="39"/>
     <tableColumn id="2" xr3:uid="{D6E91AA4-27A3-4050-B571-860F9A4F0778}" uniqueName="2" name="baseMean" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{29E79A7C-C7B1-4DEC-B61E-BABAD089BA26}" uniqueName="3" name="log2FoldChange" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{A6BA1F64-147A-403E-B00A-878CAD309322}" uniqueName="4" name="lfcSE" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{FF75A0C3-04E2-4C82-89BE-130FD4632D5F}" uniqueName="5" name="stat" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{B74552A2-AB7F-4C02-95DA-6F7DDB15D3F1}" uniqueName="6" name="pvalue" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{9A989490-1AED-4556-98F9-CCA2DAF124E1}" uniqueName="7" name="padj" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{9B895D5B-FFFC-42E1-AB96-B43F7A2407B8}" uniqueName="8" name="description_ITAG4.0" queryTableFieldId="8" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{12C6B363-FE91-42E7-8430-0AF2E9831F05}" uniqueName="9" name="goterm" queryTableFieldId="9" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{7A1CD60A-4B17-4F45-92BC-713382FE305E}" uniqueName="10" name="gene_id_versionless" queryTableFieldId="10" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{CF107D70-54FF-404F-A59C-00017FF46AE0}" uniqueName="11" name="ensembl_gene_id" queryTableFieldId="11" dataDxfId="25"/>
-    <tableColumn id="12" xr3:uid="{04562005-8961-4C11-A701-C46BFECF0C12}" uniqueName="12" name="description_ITAG3.0" queryTableFieldId="12" dataDxfId="24"/>
-    <tableColumn id="13" xr3:uid="{1397B46B-CBD6-4619-99FA-B0A6F9E18B7D}" uniqueName="13" name="athaliana_eg_homolog_ensembl_gene" queryTableFieldId="13" dataDxfId="23"/>
-    <tableColumn id="14" xr3:uid="{45D24801-3724-4D09-8E08-B123D868CB8B}" uniqueName="14" name="athaliana_eg_homolog_associated_gene_name" queryTableFieldId="14" dataDxfId="22"/>
-    <tableColumn id="15" xr3:uid="{814E5420-8F64-4C78-B815-5DB9E2BA965C}" uniqueName="15" name="external_gene_name" queryTableFieldId="15" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{7D50229C-448F-4A51-9B80-4A6063393595}" uniqueName="16" name="athaliana_eg_homolog_perc_id" queryTableFieldId="16" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{9B895D5B-FFFC-42E1-AB96-B43F7A2407B8}" uniqueName="8" name="description_ITAG4.0" queryTableFieldId="8" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{12C6B363-FE91-42E7-8430-0AF2E9831F05}" uniqueName="9" name="goterm" queryTableFieldId="9" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{7A1CD60A-4B17-4F45-92BC-713382FE305E}" uniqueName="10" name="gene_id_versionless" queryTableFieldId="10" dataDxfId="36"/>
+    <tableColumn id="11" xr3:uid="{CF107D70-54FF-404F-A59C-00017FF46AE0}" uniqueName="11" name="ensembl_gene_id" queryTableFieldId="11" dataDxfId="35"/>
+    <tableColumn id="12" xr3:uid="{04562005-8961-4C11-A701-C46BFECF0C12}" uniqueName="12" name="description_ITAG3.0" queryTableFieldId="12" dataDxfId="34"/>
+    <tableColumn id="13" xr3:uid="{1397B46B-CBD6-4619-99FA-B0A6F9E18B7D}" uniqueName="13" name="athaliana_eg_homolog_ensembl_gene" queryTableFieldId="13" dataDxfId="33"/>
+    <tableColumn id="14" xr3:uid="{45D24801-3724-4D09-8E08-B123D868CB8B}" uniqueName="14" name="athaliana_eg_homolog_associated_gene_name" queryTableFieldId="14" dataDxfId="32"/>
+    <tableColumn id="15" xr3:uid="{814E5420-8F64-4C78-B815-5DB9E2BA965C}" uniqueName="15" name="external_gene_name" queryTableFieldId="15" dataDxfId="31"/>
+    <tableColumn id="16" xr3:uid="{7D50229C-448F-4A51-9B80-4A6063393595}" uniqueName="16" name="athaliana_eg_homolog_perc_id" queryTableFieldId="16" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2546,21 +2548,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8E30834-C36D-4024-BB75-8953FB78A29E}" name="annotated_DEGslist_root__2" displayName="annotated_DEGslist_root__2" ref="A1:L29" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:L29" xr:uid="{C7BC2CD1-A160-49CB-8ED0-DDCEDF83BFD7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L29">
-    <sortCondition ref="A1:A29"/>
+    <sortCondition ref="B1:B29"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{53071BB1-7A52-428F-95D5-597057FADF69}" uniqueName="1" name="gene" queryTableFieldId="1" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{53071BB1-7A52-428F-95D5-597057FADF69}" uniqueName="1" name="gene" queryTableFieldId="1" dataDxfId="29"/>
     <tableColumn id="3" xr3:uid="{0BDC13B8-6DE6-4122-8E3A-4C45C03FE5D8}" uniqueName="3" name="log2FoldChange" queryTableFieldId="3"/>
     <tableColumn id="7" xr3:uid="{26C8DA8C-F0CE-4507-8804-57C1F5E406CB}" uniqueName="7" name="padj" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{24924802-B214-44B8-A0FB-3CA5866D624E}" uniqueName="8" name="description_ITAG4.0" queryTableFieldId="8" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{46AAFAB4-AEC8-438F-98B6-6B78BA9B5A7A}" uniqueName="9" name="goterm" queryTableFieldId="9" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{CE22F829-59DB-4D3D-A154-2DB24ED33AE4}" uniqueName="10" name="gene_id_versionless" queryTableFieldId="10" dataDxfId="36"/>
-    <tableColumn id="11" xr3:uid="{34835BCA-2299-45BB-AD5A-AC7D4CB0671E}" uniqueName="11" name="ensembl_gene_id" queryTableFieldId="11" dataDxfId="35"/>
-    <tableColumn id="12" xr3:uid="{6B910810-A7FE-4FB6-B532-C7878FBE2221}" uniqueName="12" name="description_ITAG3.0" queryTableFieldId="12" dataDxfId="34"/>
-    <tableColumn id="13" xr3:uid="{807CD5A9-C23D-4069-9AC7-8D5B4D007656}" uniqueName="13" name="athaliana_eg_homolog_ensembl_gene" queryTableFieldId="13" dataDxfId="33"/>
-    <tableColumn id="14" xr3:uid="{26EA986A-79F3-4C99-A092-3630960C0AB9}" uniqueName="14" name="athaliana_eg_homolog_associated_gene_name" queryTableFieldId="14" dataDxfId="32"/>
-    <tableColumn id="15" xr3:uid="{9D89BE93-7736-4977-BE8F-FE8D8A7F7352}" uniqueName="15" name="external_gene_name" queryTableFieldId="15" dataDxfId="31"/>
-    <tableColumn id="16" xr3:uid="{C69D1A32-AD11-4692-8629-EDB2E4F5328A}" uniqueName="16" name="athaliana_eg_homolog_perc_id" queryTableFieldId="16" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{24924802-B214-44B8-A0FB-3CA5866D624E}" uniqueName="8" name="description_ITAG4.0" queryTableFieldId="8" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{46AAFAB4-AEC8-438F-98B6-6B78BA9B5A7A}" uniqueName="9" name="goterm" queryTableFieldId="9" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{CE22F829-59DB-4D3D-A154-2DB24ED33AE4}" uniqueName="10" name="gene_id_versionless" queryTableFieldId="10" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{34835BCA-2299-45BB-AD5A-AC7D4CB0671E}" uniqueName="11" name="ensembl_gene_id" queryTableFieldId="11" dataDxfId="25"/>
+    <tableColumn id="12" xr3:uid="{6B910810-A7FE-4FB6-B532-C7878FBE2221}" uniqueName="12" name="description_ITAG3.0" queryTableFieldId="12" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{807CD5A9-C23D-4069-9AC7-8D5B4D007656}" uniqueName="13" name="athaliana_eg_homolog_ensembl_gene" queryTableFieldId="13" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{26EA986A-79F3-4C99-A092-3630960C0AB9}" uniqueName="14" name="athaliana_eg_homolog_associated_gene_name" queryTableFieldId="14" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{9D89BE93-7736-4977-BE8F-FE8D8A7F7352}" uniqueName="15" name="external_gene_name" queryTableFieldId="15" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{C69D1A32-AD11-4692-8629-EDB2E4F5328A}" uniqueName="16" name="athaliana_eg_homolog_perc_id" queryTableFieldId="16" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2592,15 +2594,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E3F0FF2F-6E23-4A88-9FCE-93C6CA0D3902}" name="annotated_DEGslist_shoot7" displayName="annotated_DEGslist_shoot7" ref="A1:P56" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:P56" xr:uid="{030D526F-1004-4BDA-B51A-73E09C0DE6BB}"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E3F0FF2F-6E23-4A88-9FCE-93C6CA0D3902}" name="annotated_DEGslist_shoot7" displayName="annotated_DEGslist_shoot7" ref="A1:L56" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:L56" xr:uid="{030D526F-1004-4BDA-B51A-73E09C0DE6BB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L56">
+    <sortCondition ref="B1:B56"/>
+  </sortState>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{1FCD62DF-FD2B-4B9E-888E-103DE013CCE7}" uniqueName="1" name="gene" queryTableFieldId="1" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{10D5742A-F4F4-409E-920C-C20EF6F94646}" uniqueName="2" name="baseMean" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{2E594015-6F24-485C-A72E-A5D555FA76FA}" uniqueName="3" name="log2FoldChange" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{7110E8AB-6944-4443-BD78-1B58882C3022}" uniqueName="4" name="lfcSE" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{FCF0B968-648D-4147-943D-6C5E6695296E}" uniqueName="5" name="stat" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{EEDC5238-988A-42AA-A441-DCA311C9B214}" uniqueName="6" name="pvalue" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{5F7293EB-6D0E-47A4-9E50-9ECB1BA8DB83}" uniqueName="7" name="padj" queryTableFieldId="7"/>
     <tableColumn id="8" xr3:uid="{79B95C58-7AAA-4A91-A65E-7FABEAB95DDB}" uniqueName="8" name="description_ITAG4.0" queryTableFieldId="8" dataDxfId="8"/>
     <tableColumn id="9" xr3:uid="{D133DB97-2134-481A-9406-98B5EEF29396}" uniqueName="9" name="goterm" queryTableFieldId="9" dataDxfId="7"/>
@@ -2915,8 +2916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D226232F-53E1-403C-94BD-1E8ABF9E9406}">
   <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="I18" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6001,10 +6002,10 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6063,32 +6064,30 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="B2">
-        <v>5.9142889182659308</v>
+        <v>-5.5268536877361081</v>
       </c>
       <c r="C2">
-        <v>2.1049452650766277E-2</v>
+        <v>2.6509619559147768E-2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>229</v>
+        <v>296</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
@@ -6101,37 +6100,37 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B3">
-        <v>1.8259707220705574</v>
+        <v>-5.2313611471566572</v>
       </c>
       <c r="C3">
-        <v>1.4699983697292732E-2</v>
+        <v>4.7409630728867509E-2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>231</v>
+        <v>298</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>230</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>230</v>
@@ -6139,105 +6138,107 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B4">
-        <v>-2.1318714019611464</v>
+        <v>-3.9230679082578424</v>
       </c>
       <c r="C4">
-        <v>5.9638434953487094E-5</v>
+        <v>1.5158372970271112E-3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>232</v>
+        <v>315</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H4" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="I4" s="1" t="s">
-        <v>538</v>
+        <v>85</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>539</v>
+        <v>86</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>235</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B5">
-        <v>-1.4595029390403311</v>
+        <v>-3.7648009470287156</v>
       </c>
       <c r="C5">
-        <v>4.6346522928401995E-3</v>
+        <v>5.2555099319018892E-3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>230</v>
+        <v>83</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B6">
-        <v>-1.0039553386914228</v>
+        <v>-2.2606429885966004</v>
       </c>
       <c r="C6">
-        <v>7.445251102434357E-3</v>
+        <v>1.6849091063245496E-2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>301</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>270</v>
+        <v>32</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>32</v>
+        <v>534</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>32</v>
@@ -6246,42 +6247,42 @@
         <v>32</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>230</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="B7">
-        <v>4.20063165830648</v>
+        <v>-2.2471771105455707</v>
       </c>
       <c r="C7">
         <v>1.2564564619199326E-3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>271</v>
+        <v>331</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>230</v>
+        <v>67</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>230</v>
@@ -6289,144 +6290,144 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>1.2850601746112005</v>
+        <v>-2.1318714019611464</v>
       </c>
       <c r="C8">
-        <v>2.5754693589486077E-2</v>
+        <v>5.9638434953487094E-5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>276</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B9">
-        <v>3.1977613643247738</v>
+        <v>-1.6876645524915701</v>
       </c>
       <c r="C9">
-        <v>1.0431400833827067E-3</v>
+        <v>6.9157471221159934E-3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>281</v>
+        <v>32</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>282</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>1.3205832673231639</v>
+        <v>-1.4595029390403311</v>
       </c>
       <c r="C10">
-        <v>1.4699983697292732E-2</v>
+        <v>4.6346522928401995E-3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>540</v>
+        <v>230</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>541</v>
+        <v>230</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>287</v>
+        <v>230</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>288</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-5.5268536877361081</v>
+        <v>-1.0039553386914228</v>
       </c>
       <c r="C11">
-        <v>2.6509619559147768E-2</v>
+        <v>7.445251102434357E-3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>270</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="J11" s="1" t="s">
         <v>32</v>
       </c>
@@ -6439,181 +6440,183 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B12">
-        <v>-1.6876645524915701</v>
+        <v>1.2850601746112005</v>
       </c>
       <c r="C12">
-        <v>6.9157471221159934E-3</v>
+        <v>2.5754693589486077E-2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>35</v>
+        <v>273</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>32</v>
+        <v>532</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>533</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B13">
-        <v>-5.2313611471566572</v>
+        <v>1.3205832673231639</v>
       </c>
       <c r="C13">
-        <v>4.7409630728867509E-2</v>
+        <v>1.4699983697292732E-2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>32</v>
+        <v>284</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>32</v>
+        <v>540</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>32</v>
+        <v>541</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>32</v>
+        <v>287</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>230</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B14">
-        <v>3.4421162371655911</v>
+        <v>1.7443665598171652</v>
       </c>
       <c r="C14">
-        <v>6.4919777569441665E-3</v>
+        <v>1.6849091063245496E-2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>230</v>
+        <v>333</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>230</v>
+        <v>536</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>230</v>
+        <v>537</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>230</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>-2.2606429885966004</v>
+        <v>1.8259707220705574</v>
       </c>
       <c r="C15">
-        <v>1.6849091063245496E-2</v>
+        <v>1.4699983697292732E-2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>300</v>
+        <v>231</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>301</v>
+        <v>230</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>534</v>
+        <v>230</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>303</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B16">
-        <v>2.6267049175944055</v>
+        <v>1.8916441196315004</v>
       </c>
       <c r="C16">
-        <v>6.9157471221159934E-3</v>
+        <v>2.8085190273962838E-3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="I16" s="1" t="s">
-        <v>542</v>
+        <v>32</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>32</v>
@@ -6622,150 +6625,148 @@
         <v>32</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>308</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B17">
-        <v>-3.7648009470287156</v>
+        <v>2.0295538398702972</v>
       </c>
       <c r="C17">
-        <v>5.2555099319018892E-3</v>
+        <v>6.9157471221159934E-3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>83</v>
+        <v>230</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>84</v>
+        <v>230</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>314</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>-3.9230679082578424</v>
+        <v>2.3382359440260303</v>
       </c>
       <c r="C18">
-        <v>1.5158372970271112E-3</v>
+        <v>1.6849091063245496E-2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="B19">
-        <v>1.8916441196315004</v>
+        <v>2.4807305921673573</v>
       </c>
       <c r="C19">
-        <v>2.8085190273962838E-3</v>
+        <v>2.2001481263837344E-2</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>32</v>
+        <v>72</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f>_xlfn.CONCAT(I19:I19)</f>
+        <v>AT2G36800;AT2G36760;AT2G36770;AT2G36790;AT2G36780;AT3G53160;AT2G36750</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f>_xlfn.CONCAT(I19:I19)</f>
+        <v>AT2G36800;AT2G36760;AT2G36770;AT2G36790;AT2G36780;AT3G53160;AT2G36750</v>
+      </c>
+      <c r="K19" s="1"/>
       <c r="L19" s="1" t="s">
-        <v>230</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B20">
-        <v>2.8699755735835715</v>
+        <v>2.6267049175944055</v>
       </c>
       <c r="C20">
-        <v>2.8085190273962838E-3</v>
+        <v>6.9157471221159934E-3</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>32</v>
+        <v>542</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>32</v>
@@ -6774,30 +6775,30 @@
         <v>32</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>230</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B21">
-        <v>5.9564872586205047</v>
+        <v>2.8699755735835715</v>
       </c>
       <c r="C21">
-        <v>2.2333184123390949E-2</v>
+        <v>2.8085190273962838E-3</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>32</v>
@@ -6817,98 +6818,98 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>2.3382359440260303</v>
+        <v>3.0401111134956129</v>
       </c>
       <c r="C22">
         <v>1.6849091063245496E-2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>56</v>
+        <v>230</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>87</v>
+        <v>230</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>320</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>2.0295538398702972</v>
+        <v>3.1977613643247738</v>
       </c>
       <c r="C23">
-        <v>6.9157471221159934E-3</v>
+        <v>1.0431400833827067E-3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>230</v>
+        <v>27</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>230</v>
+        <v>81</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>230</v>
+        <v>82</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B24">
-        <v>3.0401111134956129</v>
+        <v>3.4421162371655911</v>
       </c>
       <c r="C24">
-        <v>1.6849091063245496E-2</v>
+        <v>6.4919777569441665E-3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>230</v>
@@ -6969,37 +6970,37 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>-2.2471771105455707</v>
+        <v>4.20063165830648</v>
       </c>
       <c r="C26">
         <v>1.2564564619199326E-3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>331</v>
+        <v>271</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>67</v>
+        <v>230</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>32</v>
+        <v>230</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>230</v>
@@ -7007,104 +7008,104 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B27">
-        <v>1.7443665598171652</v>
+        <v>4.6995689058577019</v>
       </c>
       <c r="C27">
-        <v>1.6849091063245496E-2</v>
+        <v>5.9638434953487094E-5</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>333</v>
+        <v>75</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>32</v>
+        <v>363</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>536</v>
+        <v>32</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>537</v>
+        <v>32</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>336</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="B28">
-        <v>2.4807305921673573</v>
+        <v>5.9142889182659308</v>
       </c>
       <c r="C28">
-        <v>2.2001481263837344E-2</v>
+        <v>2.1049452650766277E-2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>340</v>
+        <v>229</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="1" t="str">
-        <f>_xlfn.CONCAT(I28:I28)</f>
-        <v>AT2G36800;AT2G36760;AT2G36770;AT2G36790;AT2G36780;AT3G53160;AT2G36750</v>
+        <v>9</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="J28" s="1" t="str">
-        <f>_xlfn.CONCAT(I28:I28)</f>
-        <v>AT2G36800;AT2G36760;AT2G36770;AT2G36790;AT2G36780;AT3G53160;AT2G36750</v>
-      </c>
-      <c r="K28" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="L28" s="1" t="s">
-        <v>343</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B29">
-        <v>4.6995689058577019</v>
+        <v>5.9564872586205047</v>
       </c>
       <c r="C29">
-        <v>5.9638434953487094E-5</v>
+        <v>2.2333184123390949E-2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>363</v>
+        <v>32</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>32</v>
@@ -10914,314 +10915,247 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A420D22A-ED54-4D1C-ADC6-3B3314E830EB}">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>224</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>225</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>226</v>
       </c>
       <c r="H1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="J1" t="s">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="K1" t="s">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="L1" t="s">
-        <v>227</v>
-      </c>
-      <c r="M1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="B2">
-        <v>11336.418156824726</v>
+        <v>-5.2495297205332623</v>
       </c>
       <c r="C2">
-        <v>-1.320524332072653</v>
-      </c>
-      <c r="D2">
-        <v>0.30683732750517928</v>
-      </c>
-      <c r="E2">
-        <v>-4.3036626045778705</v>
-      </c>
-      <c r="F2">
-        <v>1.6799744395488599E-5</v>
-      </c>
-      <c r="G2">
-        <v>1.6190287001585594E-2</v>
+        <v>1.1265624064611653E-2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>364</v>
+        <v>32</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>179</v>
       </c>
       <c r="B3">
-        <v>2797.2795318980934</v>
+        <v>-4.9322241628421102</v>
       </c>
       <c r="C3">
-        <v>-1.1720422660251997</v>
-      </c>
-      <c r="D3">
-        <v>0.29783563100405908</v>
-      </c>
-      <c r="E3">
-        <v>-3.935198290661289</v>
-      </c>
-      <c r="F3">
-        <v>8.3128034186532925E-5</v>
-      </c>
-      <c r="G3">
+        <v>1.1265624064611653E-2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4">
+        <v>-4.6861479517657116</v>
+      </c>
+      <c r="C4">
+        <v>2.7137280187908308E-3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5">
+        <v>-4.6365946317282534</v>
+      </c>
+      <c r="C5">
+        <v>3.0883230685176278E-3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6">
+        <v>-3.9123567867320395</v>
+      </c>
+      <c r="C6">
         <v>3.9084221220367636E-2</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4">
-        <v>67.000742195704206</v>
-      </c>
-      <c r="C4">
-        <v>1.1924151893150834</v>
-      </c>
-      <c r="D4">
-        <v>0.30632641420795803</v>
-      </c>
-      <c r="E4">
-        <v>3.8926293457200196</v>
-      </c>
-      <c r="F4">
-        <v>9.9163598590941909E-5</v>
-      </c>
-      <c r="G4">
-        <v>3.9095248744478846E-2</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5">
-        <v>121.77249613129479</v>
-      </c>
-      <c r="C5">
-        <v>1.4273896774666643</v>
-      </c>
-      <c r="D5">
-        <v>0.36579772790811194</v>
-      </c>
-      <c r="E5">
-        <v>3.902128330948035</v>
-      </c>
-      <c r="F5">
-        <v>9.5350579289639261E-5</v>
-      </c>
-      <c r="G5">
-        <v>3.9084221220367636E-2</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6">
-        <v>257.64998427108674</v>
-      </c>
-      <c r="C6">
-        <v>1.5429337911190473</v>
-      </c>
-      <c r="D6">
-        <v>0.34696738386837273</v>
-      </c>
-      <c r="E6">
-        <v>4.4469130611549996</v>
-      </c>
-      <c r="F6">
-        <v>8.7113072949176868E-6</v>
-      </c>
-      <c r="G6">
-        <v>1.3737731604085193E-2</v>
+      <c r="D6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>99</v>
+        <v>230</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>368</v>
+        <v>230</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>230</v>
@@ -11229,2499 +11163,1891 @@
       <c r="L6" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="B7">
-        <v>1033.6001170831421</v>
+        <v>-3.6188497293212567</v>
       </c>
       <c r="C7">
-        <v>-1.3626957229338004</v>
-      </c>
-      <c r="D7">
-        <v>0.35757834904286279</v>
-      </c>
-      <c r="E7">
-        <v>-3.8109010978471027</v>
-      </c>
-      <c r="F7">
-        <v>1.3846115854170148E-4</v>
-      </c>
-      <c r="G7">
+        <v>3.0883230685176278E-3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8">
+        <v>-3.2602560186014133</v>
+      </c>
+      <c r="C8">
+        <v>1.5892586770301663E-2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9">
+        <v>-2.7354763927607313</v>
+      </c>
+      <c r="C9">
         <v>4.5318598438167844E-2</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8">
-        <v>93.12690930138811</v>
-      </c>
-      <c r="C8">
-        <v>-1.7300981876455406</v>
-      </c>
-      <c r="D8">
-        <v>0.39799210057338918</v>
-      </c>
-      <c r="E8">
-        <v>-4.3470666507023115</v>
-      </c>
-      <c r="F8">
-        <v>1.3797030343656695E-5</v>
-      </c>
-      <c r="G8">
-        <v>1.5892586770301663E-2</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9">
-        <v>1011.934528132652</v>
-      </c>
-      <c r="C9">
-        <v>1.1989145437189082</v>
-      </c>
-      <c r="D9">
-        <v>0.31448412263713948</v>
-      </c>
-      <c r="E9">
-        <v>3.8123213778339107</v>
-      </c>
-      <c r="F9">
-        <v>1.3766771351809536E-4</v>
-      </c>
-      <c r="G9">
-        <v>4.5318598438167844E-2</v>
+      <c r="D9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>375</v>
+        <v>32</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B10">
-        <v>70.177155264521858</v>
+        <v>-2.0031915904073467</v>
       </c>
       <c r="C10">
-        <v>-2.0031915904073467</v>
-      </c>
-      <c r="D10">
-        <v>0.51384024052010102</v>
-      </c>
-      <c r="E10">
-        <v>-3.8984716112925444</v>
-      </c>
-      <c r="F10">
-        <v>9.6801746766459566E-5</v>
-      </c>
-      <c r="G10">
         <v>3.9084221220367636E-2</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="H10" s="1" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>377</v>
+        <v>32</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>378</v>
+        <v>32</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="B11">
-        <v>43556.343980830781</v>
+        <v>-1.8748426135661203</v>
       </c>
       <c r="C11">
-        <v>-1.1141853571582769</v>
-      </c>
-      <c r="D11">
-        <v>0.27834906500692846</v>
-      </c>
-      <c r="E11">
-        <v>-4.0028349192785804</v>
-      </c>
-      <c r="F11">
-        <v>6.2587974933350212E-5</v>
-      </c>
-      <c r="G11">
-        <v>3.9084221220367636E-2</v>
+        <v>1.4028967260975802E-2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>32</v>
+        <v>556</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>379</v>
+        <v>32</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>380</v>
+        <v>32</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="B12">
-        <v>11.997167823360135</v>
+        <v>-1.8231340504411611</v>
       </c>
       <c r="C12">
-        <v>-3.9123567867320395</v>
-      </c>
-      <c r="D12">
-        <v>0.99049087212568443</v>
-      </c>
-      <c r="E12">
-        <v>-3.9499170530827428</v>
-      </c>
-      <c r="F12">
-        <v>7.8178280864467218E-5</v>
-      </c>
-      <c r="G12">
-        <v>3.9084221220367636E-2</v>
+        <v>1.0913672555937741E-2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>385</v>
+        <v>32</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="B13">
-        <v>31.588217780322935</v>
+        <v>-1.805573324320451</v>
       </c>
       <c r="C13">
-        <v>3.5037953837567009</v>
-      </c>
-      <c r="D13">
-        <v>0.87941048241866204</v>
-      </c>
-      <c r="E13">
-        <v>3.9842547408806581</v>
-      </c>
-      <c r="F13">
-        <v>6.7692227941859413E-5</v>
-      </c>
-      <c r="G13">
-        <v>3.9084221220367636E-2</v>
+        <v>4.3380409411884459E-2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>115</v>
+        <v>222</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>386</v>
+        <v>223</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>387</v>
+        <v>32</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B14">
-        <v>1574.6964955808487</v>
+        <v>-1.7687858902625377</v>
       </c>
       <c r="C14">
-        <v>-1.7687858902625377</v>
-      </c>
-      <c r="D14">
-        <v>0.45164483480739553</v>
-      </c>
-      <c r="E14">
-        <v>-3.916320422477185</v>
-      </c>
-      <c r="F14">
-        <v>8.9910731706621127E-5</v>
-      </c>
-      <c r="G14">
         <v>3.9084221220367636E-2</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="H14" s="1" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15">
+        <v>-1.7362528696431767</v>
+      </c>
+      <c r="C15">
+        <v>2.6777371674930567E-2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16">
+        <v>-1.7300981876455406</v>
+      </c>
+      <c r="C16">
+        <v>1.5892586770301663E-2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17">
+        <v>-1.6253845829122915</v>
+      </c>
+      <c r="C17">
+        <v>3.9084221220367636E-2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18">
+        <v>-1.5017372265176536</v>
+      </c>
+      <c r="C18">
+        <v>3.7180685333695229E-2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19">
+        <v>-1.4749183454510939</v>
+      </c>
+      <c r="C19">
+        <v>1.1685257374828053E-2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>-1.3626957229338004</v>
+      </c>
+      <c r="C20">
+        <v>4.5318598438167844E-2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21">
+        <v>-1.3464573745820925</v>
+      </c>
+      <c r="C21">
+        <v>4.0211162754575216E-2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22">
+        <v>-1.3210995687192553</v>
+      </c>
+      <c r="C22">
+        <v>1.6190287001585594E-2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23">
+        <v>-1.320524332072653</v>
+      </c>
+      <c r="C23">
+        <v>1.6190287001585594E-2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24">
+        <v>-1.2105675621716971</v>
+      </c>
+      <c r="C24">
+        <v>2.2676132589898125E-2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25">
+        <v>-1.1720422660251997</v>
+      </c>
+      <c r="C25">
+        <v>3.9084221220367636E-2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26">
+        <v>-1.1662152411795175</v>
+      </c>
+      <c r="C26">
+        <v>5.5745433226880746E-3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27">
+        <v>-1.1141853571582769</v>
+      </c>
+      <c r="C27">
+        <v>3.9084221220367636E-2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28">
+        <v>-1.1054702235527558</v>
+      </c>
+      <c r="C28">
+        <v>1.1265624064611653E-2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29">
+        <v>-1.0642739632589693</v>
+      </c>
+      <c r="C29">
+        <v>2.7137280187908308E-3</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30">
+        <v>-0.96381227302025241</v>
+      </c>
+      <c r="C30">
+        <v>4.8993007947744784E-2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31">
+        <v>-0.92037355446676061</v>
+      </c>
+      <c r="C31">
+        <v>3.7001825664296988E-2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32">
+        <v>-0.91605419904224483</v>
+      </c>
+      <c r="C32">
+        <v>3.9084221220367636E-2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B33">
+        <v>-0.71515643268326012</v>
+      </c>
+      <c r="C33">
+        <v>4.5318598438167844E-2</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B34">
+        <v>0.91749238372105735</v>
+      </c>
+      <c r="C34">
+        <v>4.7724365352032283E-2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B15">
-        <v>287.06186632874432</v>
-      </c>
-      <c r="C15">
+      <c r="B35">
         <v>1.0199988144930774</v>
       </c>
-      <c r="D15">
-        <v>0.2352855847466036</v>
-      </c>
-      <c r="E15">
-        <v>4.3351521751389459</v>
-      </c>
-      <c r="F15">
-        <v>1.4565932233759445E-5</v>
-      </c>
-      <c r="G15">
+      <c r="C35">
         <v>1.5892586770301663E-2</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="J35" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="1" t="s">
+      <c r="K35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36">
+        <v>1.0531137418901713</v>
+      </c>
+      <c r="C36">
+        <v>3.9084221220367636E-2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37">
+        <v>1.0943727508115959</v>
+      </c>
+      <c r="C37">
+        <v>3.9084221220367636E-2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38">
+        <v>1.0970060072234649</v>
+      </c>
+      <c r="C38">
+        <v>4.5318598438167844E-2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39">
+        <v>1.1588505416840729</v>
+      </c>
+      <c r="C39">
+        <v>3.0263579835722035E-2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40">
+        <v>1.1924151893150834</v>
+      </c>
+      <c r="C40">
+        <v>3.9095248744478846E-2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41">
+        <v>1.1989145437189082</v>
+      </c>
+      <c r="C41">
+        <v>4.5318598438167844E-2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42">
+        <v>1.2722693643802614</v>
+      </c>
+      <c r="C42">
+        <v>3.9084221220367636E-2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B16">
-        <v>60.518384707357072</v>
-      </c>
-      <c r="C16">
+      <c r="B43">
         <v>1.3597767293809118</v>
       </c>
-      <c r="D16">
-        <v>0.32385337103141998</v>
-      </c>
-      <c r="E16">
-        <v>4.1987419338889245</v>
-      </c>
-      <c r="F16">
-        <v>2.6840199057738856E-5</v>
-      </c>
-      <c r="G16">
+      <c r="C43">
         <v>2.2676132589898125E-2</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B17">
-        <v>38.134598336216563</v>
-      </c>
-      <c r="C17">
-        <v>-3.6188497293212567</v>
-      </c>
-      <c r="D17">
-        <v>0.72832426007143691</v>
-      </c>
-      <c r="E17">
-        <v>-4.9687342955818963</v>
-      </c>
-      <c r="F17">
-        <v>6.7391338101295999E-7</v>
-      </c>
-      <c r="G17">
-        <v>3.0883230685176278E-3</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="H43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44">
+        <v>1.3611993597125693</v>
+      </c>
+      <c r="C44">
+        <v>3.9084221220367636E-2</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45">
+        <v>1.4273896774666643</v>
+      </c>
+      <c r="C45">
+        <v>3.9084221220367636E-2</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46">
+        <v>1.4954879907312149</v>
+      </c>
+      <c r="C46">
+        <v>3.9084221220367636E-2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47">
+        <v>1.5429337911190473</v>
+      </c>
+      <c r="C47">
+        <v>1.3737731604085193E-2</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48">
+        <v>1.6170957600442339</v>
+      </c>
+      <c r="C48">
+        <v>3.9084221220367636E-2</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B18">
-        <v>1416.1825706944694</v>
-      </c>
-      <c r="C18">
+      <c r="B49">
         <v>1.7063598913818419</v>
       </c>
-      <c r="D18">
-        <v>0.44183346470552776</v>
-      </c>
-      <c r="E18">
-        <v>3.8619978514282369</v>
-      </c>
-      <c r="F18">
-        <v>1.1246355583567431E-4</v>
-      </c>
-      <c r="G18">
+      <c r="C49">
         <v>4.2410984849596572E-2</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="1" t="s">
+      <c r="H49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="1" t="s">
+      <c r="K49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L49" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B19">
-        <v>307.05475594797423</v>
-      </c>
-      <c r="C19">
-        <v>1.0943727508115959</v>
-      </c>
-      <c r="D19">
-        <v>0.27521472456813201</v>
-      </c>
-      <c r="E19">
-        <v>3.9764324111978011</v>
-      </c>
-      <c r="F19">
-        <v>6.9956869968847862E-5</v>
-      </c>
-      <c r="G19">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50">
+        <v>1.8921053428097119</v>
+      </c>
+      <c r="C50">
+        <v>4.3380409411884459E-2</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51">
+        <v>2.0012634703799987</v>
+      </c>
+      <c r="C51">
+        <v>2.2676132589898125E-2</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52">
+        <v>2.065571383173046</v>
+      </c>
+      <c r="C52">
         <v>3.9084221220367636E-2</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20">
-        <v>966.01561251350302</v>
-      </c>
-      <c r="C20">
-        <v>-1.1662152411795175</v>
-      </c>
-      <c r="D20">
-        <v>0.24308933255156193</v>
-      </c>
-      <c r="E20">
-        <v>-4.7974760099032743</v>
-      </c>
-      <c r="F20">
-        <v>1.606774463217869E-6</v>
-      </c>
-      <c r="G20">
-        <v>5.5745433226880746E-3</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21">
-        <v>429.80554223120839</v>
-      </c>
-      <c r="C21">
-        <v>-1.2105675621716971</v>
-      </c>
-      <c r="D21">
-        <v>0.28848793638231479</v>
-      </c>
-      <c r="E21">
-        <v>-4.1962502049562609</v>
-      </c>
-      <c r="F21">
-        <v>2.7137045120777324E-5</v>
-      </c>
-      <c r="G21">
-        <v>2.2676132589898125E-2</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22">
-        <v>28.929709808477497</v>
-      </c>
-      <c r="C22">
-        <v>-2.7354763927607313</v>
-      </c>
-      <c r="D22">
-        <v>0.71594222907678762</v>
-      </c>
-      <c r="E22">
-        <v>-3.820806039459562</v>
-      </c>
-      <c r="F22">
-        <v>1.3301623390162991E-4</v>
-      </c>
-      <c r="G22">
-        <v>4.5318598438167844E-2</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="D52" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B53">
+        <v>3.0145211291209439</v>
+      </c>
+      <c r="C53">
+        <v>3.9084221220367636E-2</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B23">
-        <v>22.214237669876727</v>
-      </c>
-      <c r="C23">
+      <c r="B54">
         <v>3.3125302261543017</v>
       </c>
-      <c r="D23">
-        <v>0.84522228387302556</v>
-      </c>
-      <c r="E23">
-        <v>3.919123157727737</v>
-      </c>
-      <c r="F23">
-        <v>8.8871696677401244E-5</v>
-      </c>
-      <c r="G23">
+      <c r="C54">
         <v>3.9084221220367636E-2</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="O23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P23" s="1" t="s">
+      <c r="K54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L54" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24">
-        <v>32.034184135678352</v>
-      </c>
-      <c r="C24">
-        <v>-4.6861479517657116</v>
-      </c>
-      <c r="D24">
-        <v>0.90554490865488035</v>
-      </c>
-      <c r="E24">
-        <v>-5.1749481521867713</v>
-      </c>
-      <c r="F24">
-        <v>2.2797427895098798E-7</v>
-      </c>
-      <c r="G24">
-        <v>2.7137280187908308E-3</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25">
-        <v>253.45101699619113</v>
-      </c>
-      <c r="C25">
-        <v>1.2722693643802614</v>
-      </c>
-      <c r="D25">
-        <v>0.31882981377287822</v>
-      </c>
-      <c r="E25">
-        <v>3.9904341106775414</v>
-      </c>
-      <c r="F25">
-        <v>6.5952469742834848E-5</v>
-      </c>
-      <c r="G25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55">
+        <v>3.5037953837567009</v>
+      </c>
+      <c r="C55">
         <v>3.9084221220367636E-2</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26">
-        <v>1721.6361996757</v>
-      </c>
-      <c r="C26">
-        <v>-1.0642739632589693</v>
-      </c>
-      <c r="D26">
-        <v>0.20804800098583953</v>
-      </c>
-      <c r="E26">
-        <v>-5.1155212172954618</v>
-      </c>
-      <c r="F26">
-        <v>3.1287577319315512E-7</v>
-      </c>
-      <c r="G26">
-        <v>2.7137280187908308E-3</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B27">
-        <v>203.56867358737946</v>
-      </c>
-      <c r="C27">
-        <v>-0.96381227302025241</v>
-      </c>
-      <c r="D27">
-        <v>0.25481636508354633</v>
-      </c>
-      <c r="E27">
-        <v>-3.7823798039982575</v>
-      </c>
-      <c r="F27">
-        <v>1.5533610636570954E-4</v>
-      </c>
-      <c r="G27">
-        <v>4.8993007947744784E-2</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B28">
-        <v>338.21943196583624</v>
-      </c>
-      <c r="C28">
-        <v>1.0970060072234649</v>
-      </c>
-      <c r="D28">
-        <v>0.28730487836764901</v>
-      </c>
-      <c r="E28">
-        <v>3.8182644633680174</v>
-      </c>
-      <c r="F28">
-        <v>1.3439381235305775E-4</v>
-      </c>
-      <c r="G28">
-        <v>4.5318598438167844E-2</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29">
-        <v>122.87819608413683</v>
-      </c>
-      <c r="C29">
-        <v>2.0012634703799987</v>
-      </c>
-      <c r="D29">
-        <v>0.47721395035970959</v>
-      </c>
-      <c r="E29">
-        <v>4.1936399153283475</v>
-      </c>
-      <c r="F29">
-        <v>2.7451362448138619E-5</v>
-      </c>
-      <c r="G29">
-        <v>2.2676132589898125E-2</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B30">
-        <v>3596.9434152333656</v>
-      </c>
-      <c r="C30">
-        <v>-1.3464573745820925</v>
-      </c>
-      <c r="D30">
-        <v>0.34699501769788588</v>
-      </c>
-      <c r="E30">
-        <v>-3.8803363331124161</v>
-      </c>
-      <c r="F30">
-        <v>1.0431211874997895E-4</v>
-      </c>
-      <c r="G30">
-        <v>4.0211162754575216E-2</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="D55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B31">
-        <v>23.182418121580628</v>
-      </c>
-      <c r="C31">
+      <c r="B56">
         <v>4.1402670013217699</v>
       </c>
-      <c r="D31">
-        <v>0.93712227828580741</v>
-      </c>
-      <c r="E31">
-        <v>4.4180648537085085</v>
-      </c>
-      <c r="F31">
-        <v>9.9588541308846487E-6</v>
-      </c>
-      <c r="G31">
+      <c r="C56">
         <v>1.4028967260975802E-2</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M31" s="1" t="s">
+      <c r="H56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="O31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P31" s="1" t="s">
+      <c r="K56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L56" s="1" t="s">
         <v>423</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B32">
-        <v>960.39189565201616</v>
-      </c>
-      <c r="C32">
-        <v>1.6170957600442339</v>
-      </c>
-      <c r="D32">
-        <v>0.41482399950787519</v>
-      </c>
-      <c r="E32">
-        <v>3.8982695359059965</v>
-      </c>
-      <c r="F32">
-        <v>9.6882545251386886E-5</v>
-      </c>
-      <c r="G32">
-        <v>3.9084221220367636E-2</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B33">
-        <v>257.46735916443413</v>
-      </c>
-      <c r="C33">
-        <v>-1.3210995687192553</v>
-      </c>
-      <c r="D33">
-        <v>0.30668989961019288</v>
-      </c>
-      <c r="E33">
-        <v>-4.3076070336792673</v>
-      </c>
-      <c r="F33">
-        <v>1.6503024314390393E-5</v>
-      </c>
-      <c r="G33">
-        <v>1.6190287001585594E-2</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B34">
-        <v>214.53349889718399</v>
-      </c>
-      <c r="C34">
-        <v>-1.5017372265176536</v>
-      </c>
-      <c r="D34">
-        <v>0.37177058872923846</v>
-      </c>
-      <c r="E34">
-        <v>-4.0394191257861252</v>
-      </c>
-      <c r="F34">
-        <v>5.3583739744185204E-5</v>
-      </c>
-      <c r="G34">
-        <v>3.7180685333695229E-2</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B35">
-        <v>718.54771228116908</v>
-      </c>
-      <c r="C35">
-        <v>-1.4749183454510939</v>
-      </c>
-      <c r="D35">
-        <v>0.327624325667567</v>
-      </c>
-      <c r="E35">
-        <v>-4.5018584698978064</v>
-      </c>
-      <c r="F35">
-        <v>6.7361834177829323E-6</v>
-      </c>
-      <c r="G35">
-        <v>1.1685257374828053E-2</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B36">
-        <v>139.88532539996464</v>
-      </c>
-      <c r="C36">
-        <v>-1.7362528696431767</v>
-      </c>
-      <c r="D36">
-        <v>0.41886421521317696</v>
-      </c>
-      <c r="E36">
-        <v>-4.1451449099310791</v>
-      </c>
-      <c r="F36">
-        <v>3.3959887983424941E-5</v>
-      </c>
-      <c r="G36">
-        <v>2.6777371674930567E-2</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B37">
-        <v>2042.7344980351334</v>
-      </c>
-      <c r="C37">
-        <v>1.0531137418901713</v>
-      </c>
-      <c r="D37">
-        <v>0.26831291353040587</v>
-      </c>
-      <c r="E37">
-        <v>3.9249461683879403</v>
-      </c>
-      <c r="F37">
-        <v>8.6749134952068447E-5</v>
-      </c>
-      <c r="G37">
-        <v>3.9084221220367636E-2</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B38">
-        <v>72.058099975747098</v>
-      </c>
-      <c r="C38">
-        <v>-1.6253845829122915</v>
-      </c>
-      <c r="D38">
-        <v>0.41475343200355813</v>
-      </c>
-      <c r="E38">
-        <v>-3.9189177412240133</v>
-      </c>
-      <c r="F38">
-        <v>8.8947462170538033E-5</v>
-      </c>
-      <c r="G38">
-        <v>3.9084221220367636E-2</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B39">
-        <v>46.946598072297171</v>
-      </c>
-      <c r="C39">
-        <v>-4.6365946317282534</v>
-      </c>
-      <c r="D39">
-        <v>0.93516938955831552</v>
-      </c>
-      <c r="E39">
-        <v>-4.9580265174399436</v>
-      </c>
-      <c r="F39">
-        <v>7.1212845299305424E-7</v>
-      </c>
-      <c r="G39">
-        <v>3.0883230685176278E-3</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B40">
-        <v>602.14513408892776</v>
-      </c>
-      <c r="C40">
-        <v>-0.92037355446676061</v>
-      </c>
-      <c r="D40">
-        <v>0.22724639594282273</v>
-      </c>
-      <c r="E40">
-        <v>-4.0501128770303358</v>
-      </c>
-      <c r="F40">
-        <v>5.1192933414603545E-5</v>
-      </c>
-      <c r="G40">
-        <v>3.7001825664296988E-2</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B41">
-        <v>93.543823498325537</v>
-      </c>
-      <c r="C41">
-        <v>1.1588505416840729</v>
-      </c>
-      <c r="D41">
-        <v>0.28218162586414125</v>
-      </c>
-      <c r="E41">
-        <v>4.1067540742075508</v>
-      </c>
-      <c r="F41">
-        <v>4.0125804820522672E-5</v>
-      </c>
-      <c r="G41">
-        <v>3.0263579835722035E-2</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B42">
-        <v>929.53256629398106</v>
-      </c>
-      <c r="C42">
-        <v>-1.8748426135661203</v>
-      </c>
-      <c r="D42">
-        <v>0.42548799492696138</v>
-      </c>
-      <c r="E42">
-        <v>-4.4063349281757125</v>
-      </c>
-      <c r="F42">
-        <v>1.0513436005804197E-5</v>
-      </c>
-      <c r="G42">
-        <v>1.4028967260975802E-2</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B43">
-        <v>11.028245222561971</v>
-      </c>
-      <c r="C43">
-        <v>-4.9322241628421102</v>
-      </c>
-      <c r="D43">
-        <v>1.0835175329080298</v>
-      </c>
-      <c r="E43">
-        <v>-4.5520483176719972</v>
-      </c>
-      <c r="F43">
-        <v>5.312613015563493E-6</v>
-      </c>
-      <c r="G43">
-        <v>1.1265624064611653E-2</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B44">
-        <v>381.40924907119728</v>
-      </c>
-      <c r="C44">
-        <v>0.91749238372105735</v>
-      </c>
-      <c r="D44">
-        <v>0.24186162556278079</v>
-      </c>
-      <c r="E44">
-        <v>3.7934599239799658</v>
-      </c>
-      <c r="F44">
-        <v>1.4856261768661689E-4</v>
-      </c>
-      <c r="G44">
-        <v>4.7724365352032283E-2</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B45">
-        <v>165.91758651325344</v>
-      </c>
-      <c r="C45">
-        <v>1.4954879907312149</v>
-      </c>
-      <c r="D45">
-        <v>0.38347054650431356</v>
-      </c>
-      <c r="E45">
-        <v>3.8998770684318842</v>
-      </c>
-      <c r="F45">
-        <v>9.6241541802429719E-5</v>
-      </c>
-      <c r="G45">
-        <v>3.9084221220367636E-2</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B46">
-        <v>173.30233442844789</v>
-      </c>
-      <c r="C46">
-        <v>-1.805573324320451</v>
-      </c>
-      <c r="D46">
-        <v>0.46937877360360036</v>
-      </c>
-      <c r="E46">
-        <v>-3.8467298179216201</v>
-      </c>
-      <c r="F46">
-        <v>1.1970484716211139E-4</v>
-      </c>
-      <c r="G46">
-        <v>4.3380409411884459E-2</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B47">
-        <v>372.82935734724299</v>
-      </c>
-      <c r="C47">
-        <v>-1.1054702235527558</v>
-      </c>
-      <c r="D47">
-        <v>0.24123813200018704</v>
-      </c>
-      <c r="E47">
-        <v>-4.5824854237882207</v>
-      </c>
-      <c r="F47">
-        <v>4.5948174615366489E-6</v>
-      </c>
-      <c r="G47">
-        <v>1.1265624064611653E-2</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B48">
-        <v>26.829442740625868</v>
-      </c>
-      <c r="C48">
-        <v>-5.2495297205332623</v>
-      </c>
-      <c r="D48">
-        <v>1.1583442572658531</v>
-      </c>
-      <c r="E48">
-        <v>-4.5319253646789015</v>
-      </c>
-      <c r="F48">
-        <v>5.8448502093448371E-6</v>
-      </c>
-      <c r="G48">
-        <v>1.1265624064611653E-2</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B49">
-        <v>2589.8960477165342</v>
-      </c>
-      <c r="C49">
-        <v>-0.91605419904224483</v>
-      </c>
-      <c r="D49">
-        <v>0.22880909441613989</v>
-      </c>
-      <c r="E49">
-        <v>-4.0035742520627169</v>
-      </c>
-      <c r="F49">
-        <v>6.2392606158121183E-5</v>
-      </c>
-      <c r="G49">
-        <v>3.9084221220367636E-2</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B50">
-        <v>71.403832792508624</v>
-      </c>
-      <c r="C50">
-        <v>2.065571383173046</v>
-      </c>
-      <c r="D50">
-        <v>0.52540371863514301</v>
-      </c>
-      <c r="E50">
-        <v>3.9313984844622771</v>
-      </c>
-      <c r="F50">
-        <v>8.4453156271009411E-5</v>
-      </c>
-      <c r="G50">
-        <v>3.9084221220367636E-2</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B51">
-        <v>358.80055988164133</v>
-      </c>
-      <c r="C51">
-        <v>-1.8231340504411611</v>
-      </c>
-      <c r="D51">
-        <v>0.39432674566466963</v>
-      </c>
-      <c r="E51">
-        <v>-4.6234095721002166</v>
-      </c>
-      <c r="F51">
-        <v>3.7748334199358076E-6</v>
-      </c>
-      <c r="G51">
-        <v>1.0913672555937741E-2</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B52">
-        <v>167.41198311155171</v>
-      </c>
-      <c r="C52">
-        <v>1.8921053428097119</v>
-      </c>
-      <c r="D52">
-        <v>0.4919602653365579</v>
-      </c>
-      <c r="E52">
-        <v>3.8460531797528246</v>
-      </c>
-      <c r="F52">
-        <v>1.2003572097598743E-4</v>
-      </c>
-      <c r="G52">
-        <v>4.3380409411884459E-2</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B53">
-        <v>6787.7810673772619</v>
-      </c>
-      <c r="C53">
-        <v>-0.71515643268326012</v>
-      </c>
-      <c r="D53">
-        <v>0.1871469621407594</v>
-      </c>
-      <c r="E53">
-        <v>-3.821362764870142</v>
-      </c>
-      <c r="F53">
-        <v>1.3271626067175925E-4</v>
-      </c>
-      <c r="G53">
-        <v>4.5318598438167844E-2</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B54">
-        <v>16.637871730046996</v>
-      </c>
-      <c r="C54">
-        <v>3.0145211291209439</v>
-      </c>
-      <c r="D54">
-        <v>0.76886436857971019</v>
-      </c>
-      <c r="E54">
-        <v>3.9207450004342612</v>
-      </c>
-      <c r="F54">
-        <v>8.8275636182391521E-5</v>
-      </c>
-      <c r="G54">
-        <v>3.9084221220367636E-2</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B55">
-        <v>93.452822903719664</v>
-      </c>
-      <c r="C55">
-        <v>1.3611993597125693</v>
-      </c>
-      <c r="D55">
-        <v>0.34278789150667732</v>
-      </c>
-      <c r="E55">
-        <v>3.9709668673814691</v>
-      </c>
-      <c r="F55">
-        <v>7.1581534820369731E-5</v>
-      </c>
-      <c r="G55">
-        <v>3.9084221220367636E-2</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B56">
-        <v>25.010564500666067</v>
-      </c>
-      <c r="C56">
-        <v>-3.2602560186014133</v>
-      </c>
-      <c r="D56">
-        <v>0.75229302708084322</v>
-      </c>
-      <c r="E56">
-        <v>-4.3337581251448425</v>
-      </c>
-      <c r="F56">
-        <v>1.4658522414528541E-5</v>
-      </c>
-      <c r="G56">
-        <v>1.5892586770301663E-2</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
